--- a/5_results/5_3_mix/feature_importance_set_3.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_3.xlsx
@@ -472,472 +472,472 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.01914607909149191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.0009885817471227043</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>8.499042208005959e-07</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.02118158257246935</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.01711057561051446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.003405200299238653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.0005329614683639481</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>6.971726817656977e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.004502575328910339</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.002307825269566967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.0001475518008146715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>6.51436785687436e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.003578361758015688</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.0002816835353690367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>1.342006626030626e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.0001292372083568694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>9.414009729645631e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.01865168099823148</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.0003230729698446924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>-6.459855313095363e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>8.245082040192475e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>5.043807255873408e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.01083507392508329</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.0001863035089286054</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>-2.14018681247559e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>1.269127188376906e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>2.292055425293679e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.1416853504484991</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>5.988500988629186e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>-3.450246611875373e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_3.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_3.xlsx
@@ -472,472 +472,472 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01914607909149191</v>
+        <v>0.06065447374329278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009885817471227043</v>
+        <v>0.008398158823171067</v>
       </c>
       <c r="D2" t="n">
-        <v>8.499042208005959e-07</v>
+        <v>4.29977675604683e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02118158257246935</v>
+        <v>0.07794639883509233</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01711057561051446</v>
+        <v>0.04336254865149324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003405200299238653</v>
+        <v>0.04458319124645125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005329614683639481</v>
+        <v>0.00329790836501584</v>
       </c>
       <c r="D3" t="n">
-        <v>6.971726817656977e-05</v>
+        <v>3.566884709558152e-06</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004502575328910339</v>
+        <v>0.0513736301519565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002307825269566967</v>
+        <v>0.037792752340946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001475518008146715</v>
+        <v>0.03792063416892486</v>
       </c>
       <c r="C4" t="n">
-        <v>6.51436785687436e-05</v>
+        <v>0.005380053455974023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003578361758015688</v>
+        <v>4.734328239703278e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002816835353690367</v>
+        <v>0.04899823859501647</v>
       </c>
       <c r="G4" t="n">
-        <v>1.342006626030626e-05</v>
+        <v>0.02684302974283326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001292372083568694</v>
+        <v>0.03196680324659072</v>
       </c>
       <c r="C5" t="n">
-        <v>9.414009729645631e-05</v>
+        <v>0.007129461223564434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01865168099823148</v>
+        <v>0.0002781913040643903</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003230729698446924</v>
+        <v>0.04664646244553589</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.459855313095363e-05</v>
+        <v>0.01728714404764554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.245082040192475e-05</v>
+        <v>0.03118182340136157</v>
       </c>
       <c r="C6" t="n">
-        <v>5.043807255873408e-05</v>
+        <v>0.005296937532284181</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01083507392508329</v>
+        <v>9.619377616875492e-05</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001863035089286054</v>
+        <v>0.04208829099179164</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.14018681247559e-05</v>
+        <v>0.0202753558109315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.269127188376906e-05</v>
+        <v>0.02938847475936166</v>
       </c>
       <c r="C7" t="n">
-        <v>2.292055425293679e-05</v>
+        <v>0.003720466987579002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1416853504484991</v>
+        <v>3.017443033462029e-05</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>5.988500988629186e-05</v>
+        <v>0.03704896770910529</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.450246611875373e-05</v>
+        <v>0.02172798180961803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.02714697627519791</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.005730174920073253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.0002246972565772591</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.03894548563506273</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.01534846691533309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.02284267649430651</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.002175567395411461</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>9.755488822946655e-06</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.02732219983099563</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.01836315315761739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.02243525861584412</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.003301703094196692</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>5.469791961514902e-05</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.02923351092118148</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.01563700631050676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.02064354971075475</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.003739912384236916</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.00012379956813655</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.02834408100098097</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.01294301842052853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.02009992771211555</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.004141529208469208</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.0002045754128407484</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.02862739359437047</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.01157246182986063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.0188862892212674</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.002220859339077886</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>2.252755261152755e-05</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.02345906929596688</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.01431350914656793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.01796681637834543</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.00333994394024658</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.0001369314675083821</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.02484380711424417</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.01108982564244669</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.01649069193411579</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.001624824188994647</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>1.116478782690974e-05</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.01983622739671263</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.01314515647151894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.01343779862628813</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.002205995677092329</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>8.410869486738748e-05</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.01797997421552171</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.008895623037054561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.01038856944759521</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.001730373155320886</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>8.904722022691546e-05</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.01395143169069953</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.00682570720449089</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.009885115091747342</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.001889184324626809</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.0001525781497053088</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.01377497172745618</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.005995258456038505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.009736035314207237</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.001473986043905141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>6.116023190212443e-05</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.01277099295126007</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.006701077677154406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.008834036357298758</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.001052107242368642</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>2.369274904644182e-05</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.01100033971100324</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.00666773300359428</v>
       </c>
     </row>
   </sheetData>
